--- a/forge/data/cfnai/cfnai-realtime-revised.xlsx
+++ b/forge/data/cfnai/cfnai-realtime-revised.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA1B44-AA07-B845-8BD4-5C3D89673D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A067C43-79E6-E448-9E69-FBF29B4504BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3480" windowWidth="32760" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11600" yWindow="1440" windowWidth="18080" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cfnai_realtime" sheetId="4" r:id="rId1"/>
-    <sheet name="P&amp;I" sheetId="5" r:id="rId2"/>
-    <sheet name="EU&amp;H" sheetId="6" r:id="rId3"/>
-    <sheet name="C&amp;H" sheetId="7" r:id="rId4"/>
-    <sheet name="SO&amp;I" sheetId="8" r:id="rId5"/>
-    <sheet name="Diffusion" sheetId="9" r:id="rId6"/>
-    <sheet name="release_dates" sheetId="10" r:id="rId7"/>
+    <sheet name="ALL_cropped" sheetId="11" r:id="rId1"/>
+    <sheet name="cfnai_realtime" sheetId="4" r:id="rId2"/>
+    <sheet name="P&amp;I" sheetId="5" r:id="rId3"/>
+    <sheet name="EU&amp;H" sheetId="6" r:id="rId4"/>
+    <sheet name="C&amp;H" sheetId="7" r:id="rId5"/>
+    <sheet name="SO&amp;I" sheetId="8" r:id="rId6"/>
+    <sheet name="Diffusion" sheetId="9" r:id="rId7"/>
+    <sheet name="release_dates" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +123,27 @@
   </si>
   <si>
     <t>DIFFAUG2020</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CF3</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>EUH</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>SOI</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -445,11 +467,5762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E37B6D-DFB0-7547-A83C-EE60E87A613F}">
+  <dimension ref="A1:G249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>36556</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.21273455862660628</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.37615658241346178</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-7.5564134444625605E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.13957976996884744</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-3.5381832275600981E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.18410075537798537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>36585</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.23592481008638472</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.18427342135393862</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.7255244301490629E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1.0991811524468143E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.12955435842074098</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-0.45174260128414812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>36616</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.4252214616415354</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.13401040339391898</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.10372030310245124</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.3687245800154972E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.9274644448499815E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.20853926829042949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>36646</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.47217134071401656</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.2204893307563891</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.21537224538632449</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.11310339026310039</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-2.6547940042513429E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.17024364510710513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>36677</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.39791261387352195</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.16649339616067668</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-4.7966638572877356E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.21683790796418506</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.9825166269390847E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.18293323360585029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>36707</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.13871462743693941</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.0991118092478003E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-3.1054804701213627E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1.6288026364943719E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.3737358590139816E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.14766087618450757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>36738</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-0.26569170808516007</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.17496323150724755</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-8.1559725233369573E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.0708117416318103E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-5.3983004608825534E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-0.19944179980722607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>36769</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-0.38988221946034579</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.17228643336952218</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.2344106070938953</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.14390064325798529</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6.4366930992413807E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-7.5937900100878974E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>36799</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.34733477462542822</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-0.10274638430669254</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.3863442545791617E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.9788456132928588E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8.8415117612295091E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.15526775833441295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>36830</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-0.48757471480983233</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-0.17670738654824994</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.2197822886601844</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-3.1352261821593265E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.1712106550379521E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-0.23761137498309262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>36860</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.344579318413816</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.16160641953274005</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.11556742853625865</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-6.3830153364069053E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.4376609528789903E-4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.16582550260877635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>36891</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-0.23361571597132441</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-0.35525658306499092</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.24945627146922292</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-6.5468735539039938E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3.4035453126452717E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4.727383791048563E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>36922</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-0.74349878306659578</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-0.44056460581724538</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.32812763604078143</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.14818482653962051</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.5410581250540874E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-0.29259690173673469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>36950</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.51825829069167351</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.49845759657653121</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-0.37403152359840391</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.17304828659927385</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.0227476648367113E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1.4059571423629775E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>36981</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-0.68254813193800223</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.64810173523209047</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-0.20411279939446159</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.18106368781828863</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1.9624332890514809E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-0.27774731183473722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>37011</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-0.83022817428022055</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-0.67701153230329891</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-0.23956672525034867</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-0.32394736165369586</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.9994569890066934E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.32670865726624315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>37042</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-0.45852168399178417</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-0.65709933007000232</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.35213395557206412</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.25651449623930506</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.3021752299240502E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.11710501552034455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>37072</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-0.92491324928692176</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-0.7378877025196422</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-0.32490433057644169</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-0.28955203850769889</v>
+      </c>
+      <c r="F19" s="2">
+        <v>9.4043773208243222E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.31986125752360578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>37103</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-0.47210707586400985</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-0.61851400304757187</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.28965997952853501</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.19647300259579006</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.6402408489312782E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-2.237650222899755E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>37134</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-0.42694497315955632</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-0.60798843277016268</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-0.1824481793338284</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-0.39281297813360899</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8.0044004709794531E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6.8272179598086569E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>37164</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-0.99117954916372342</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-0.63007719939576312</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.20449376131980199</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.24203036768691163</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-0.12484180191034895</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-0.41981361824666125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>37195</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-0.2456551926178237</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-0.55459323831370111</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-0.29797576017720356</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-0.45787052793932043</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.37766213840516299</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.13252895709353746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>37225</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-0.72170482139645065</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-0.65284652105933261</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-0.24996388843567219</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-0.32702968646634983</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-7.0783485863377835E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-7.3927760631050679E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>37256</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-0.28334385438619419</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-0.41690128946682287</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-5.0269732651083983E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-0.21347105790277851</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-3.6053709138451337E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.6450645306119682E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>37287</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-7.7226808035613423E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-0.36075849460608606</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.12485271236137149</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-0.20759421148439619</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4.5555504071322743E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-4.0040812983911427E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>37315</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-9.995913645555092E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-0.15350993295911952</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.10649801632818258</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-0.12063082218191296</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8.3739114000450227E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4.3430588054094367E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>37346</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.3831505321497103E-3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-5.760093131967154E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.21241576521940558</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-0.10396565994911248</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-3.1178145419979843E-3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-0.10094914019614543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>37376</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.15574345591861913</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.0055823331739307E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.3397874959087422E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-0.12955139363677134</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6.8728778430372645E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.18316819616593044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>37407</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4.4358913377540443E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6.8161839942769767E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.12129350234586532</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-0.11855132222444899</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-3.8263016607830616E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7.9879749863954727E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>37437</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.34221282000868053</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.18077172976828004</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.30550001599457488</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-2.5685828282666207E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>7.9536491665615008E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-1.7137859368843229E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>37468</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-0.35010925010375071</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.2154161094156754E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.19118870558761522</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-0.15598583175400627</v>
+      </c>
+      <c r="F32" s="2">
+        <v>9.7366034723832665E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-0.10030074748596195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>37499</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-1.5742334633889726E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-7.8795882429866428E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-4.4311138709723287E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-0.12591099122812932</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4.4262000885293543E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.11021779441866934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>37529</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-0.30232936347316258</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-0.22272698273693434</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-2.4732036253700282E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-7.5548164941313722E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-3.4960746958152614E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-0.16708841531999596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>37560</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-0.37917941782705561</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-0.23241703864470264</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.16441787954422685</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-0.13147057286054672</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.7272289111859468E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-0.13056325453414158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>37590</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.12578703642981795</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-0.18524058162346671</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9.2547513321717248E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-0.14668457156130799</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6.9804593080764185E-2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.11011950158864446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>37621</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-0.55551324629197663</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-0.2696352092297381</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-0.25519680992771826</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-0.16579021451126008</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.11426735107482096</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-0.24879357292781942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37652</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.35441842721701083</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-2.5102594215049279E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.19932186654703538</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.4030369289398709E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2.7954070772258824E-2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.11311212060831798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>37680</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-0.44282466833012868</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-0.21463982913503146</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-6.1572681944870637E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-0.18272640115386043</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-6.4111372721214102E-2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-0.13441421251018359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37711</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-0.15103784072588011</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-7.9814693946332657E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-0.10028780294678101</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-0.19633369378974086</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.11554824088624881</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3.0035415124392971E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>37741</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-0.65719217723183254</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-0.4170182287626138</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-0.36672425874879866</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-0.18476488172106767</v>
+      </c>
+      <c r="F41" s="2">
+        <v>7.0954765931218688E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-0.17665780269318507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>37772</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.2432203747337623E-2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-0.265265938070125</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-3.2444253150875506E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-0.11586224875537939</v>
+      </c>
+      <c r="F42" s="2">
+        <v>7.2727081984206035E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>8.8011623669386446E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>37802</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.14284267159767786</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-0.16730576729560567</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3.3161887119428864E-2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-0.10543991321746617</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.10795867132923113</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.10716202636648406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>37833</v>
+      </c>
+      <c r="B44" s="2">
+        <v>8.9367315313583495E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>8.154739688619965E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>6.1011166619546517E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-0.14813226077479941</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9.4850105850920699E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>8.1638303617915658E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>37864</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-0.11904372348644159</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3.7722087808273255E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-0.1114501867218723</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-5.4939770072100554E-2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.13631291867734668</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-8.8966685369815404E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>37894</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.30206013789629527</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9.079457657447905E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.18648420942304422</v>
+      </c>
+      <c r="E46" s="2">
+        <v>-1.1404911358923365E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-2.1327370779916336E-3</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.12911357691016587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>37925</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.14560764855143615</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.10954135432042994</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3.3198554182413318E-3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.8531940645177901E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5.6811807710973869E-2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6.6944044777043049E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>37955</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.50834325687152893</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.31867034777308678</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.30355395414719338</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4.0740927728668865E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.13583578519933026</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2.821258979633625E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>37986</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-1.7432667175328178E-2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.21217274608254563</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-2.7034688564575943E-2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.3159407847814766E-3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5.1483501452425605E-2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-4.4197420847959336E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>38017</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9.9982508116768717E-2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.19696436593765651</v>
+      </c>
+      <c r="D50" s="2">
+        <v>6.2391537118738578E-2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4.6256979000405055E-2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>6.4005818525443556E-2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-7.2671826527818423E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>38046</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.43473868067779886</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.17242950720641312</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.22082285544971872</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.3005011013672397E-2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5.7961968159357655E-2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.14294884605505018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>38077</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.48707845693251745</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.34059988190902835</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-0.12490468506973332</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4.6109697856885068E-2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.13800302615194007</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.42787041799342557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>38107</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.10451996285454182</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.34211236682161933</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.17096971654708415</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8.103728554534996E-2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.8081165627840564E-2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-0.1655682048657329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>38138</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.58037358052615307</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.39065733343773745</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.28026115561813297</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.14875774661888275</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.13591868641088334</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1.5435991878253733E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>38168</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-0.30673134347428943</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.12605406663546848</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-0.27614297557280448</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-3.4768443165151548E-2</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-5.8510056616099163E-2</v>
+      </c>
+      <c r="G55" s="2">
+        <v>6.269013187976577E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>38199</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.46472362542368095</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.24612195415851487</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.29339649505362392</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4.7429426679301168E-2</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.1503231761152847</v>
+      </c>
+      <c r="G56" s="2">
+        <v>-2.6425472424528727E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>38230</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.28946815206913956</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.14915347800617704</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7.2311428195982963E-2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>-2.1994277500306848E-2</v>
+      </c>
+      <c r="F57" s="2">
+        <v>9.3938189842795408E-2</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.14521281153066812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>38260</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.15192324344130417</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.30203834031137489</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-2.0566178003860451E-2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4.3630966152931543E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.13115641186827487</v>
+      </c>
+      <c r="G58" s="2">
+        <v>-2.297956576041781E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>38291</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.48045356320225574</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.30728165290423315</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.30595558341928214</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7.0260434933443972E-2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>7.2814770516093405E-2</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3.1422774333436126E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>38321</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-7.7953697654063875E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.20819381229271783</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-2.9245606827180262E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-9.4727028657511841E-2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>4.2680236427062965E-2</v>
+      </c>
+      <c r="G60" s="2">
+        <v>7.3497029292222738E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>38352</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.79588363775614857</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.42284727706433262</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.31150216253570845</v>
+      </c>
+      <c r="E61" s="2">
+        <v>9.6908666702538199E-2</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.14445228206135458</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.24302052645654759</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>38383</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.23755011626724049</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.34187946141932762</v>
+      </c>
+      <c r="D62" s="2">
+        <v>8.6966207517444105E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3.7061339696526752E-2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2.7484740330636106E-2</v>
+      </c>
+      <c r="G62" s="2">
+        <v>8.6037828722633464E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>38411</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.35723323576340138</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.46355566326226344</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.20434107381513381</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5.5007250477895793E-2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.12867431203435867</v>
+      </c>
+      <c r="G63" s="2">
+        <v>-3.0789400563986883E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>38442</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-0.28378108484551223</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.10366742239504322</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-0.15137526373487797</v>
+      </c>
+      <c r="E64" s="2">
+        <v>-1.1981189138743121E-2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5.5764265419017474E-2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>-0.17618889739090865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>38472</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.54403426745626515</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.2058288061247181</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4.0695531741891763E-2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.12538974126176322</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.12224941667778014</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.25569957777482988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>38503</v>
+      </c>
+      <c r="B66" s="2">
+        <v>7.9707827937019939E-3</v>
+      </c>
+      <c r="C66" s="2">
+        <v>8.9407988468151636E-2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3.227684840423127E-2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-2.2960289588897821E-2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3.531614580207617E-2</v>
+      </c>
+      <c r="G66" s="2">
+        <v>-3.6661921823707651E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>38533</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.36632299817423492</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.306109349474734</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.3501590761878504E-2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6.0616819194864474E-2</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.2057486292980148</v>
+      </c>
+      <c r="G67" s="2">
+        <v>5.6455958919477203E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>38564</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-3.8418285924987423E-2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.11195849834764983</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-0.15553628513055259</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.10312960022343957</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.12856248543724483</v>
+      </c>
+      <c r="G68" s="2">
+        <v>-0.11457408645511927</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>38595</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.19550887854557006</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.17447119693160584</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5.7164788519916597E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.682190809482419E-2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-1.7717806258355211E-2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.13923998818918437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>38625</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-0.55959926107679536</v>
+      </c>
+      <c r="C70" s="2">
+        <v>-0.13416955615207091</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-0.48847870400941962</v>
+      </c>
+      <c r="E70" s="2">
+        <v>-3.260611674706617E-2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-3.9343182079508831E-3</v>
+      </c>
+      <c r="G70" s="2">
+        <v>-3.4580122112358412E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>38656</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.64347074138283067</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9.312678628386846E-2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.44942442001840172</v>
+      </c>
+      <c r="E71" s="2">
+        <v>8.9197712834108989E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>9.0522614334176285E-2</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1.4325994196143343E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>38686</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.67617774819921284</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.25334974283508271</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.27091585642877875</v>
+      </c>
+      <c r="E72" s="2">
+        <v>6.0325978569851148E-2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.16030107511169939</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.1846348380888837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>38717</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.35337196666102683</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.5576734854143568</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.141578310559344</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3.8920175990563625E-2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>8.4703931689452769E-2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>8.8169548421666397E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>38748</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.46043533820714649</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.49666168435579539</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.12386906392964103</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.16468498313902555</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.17922578471427472</v>
+      </c>
+      <c r="G74" s="2">
+        <v>-7.3444935757946373E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>38776</v>
+      </c>
+      <c r="B75" s="2">
+        <v>8.0934827084090943E-2</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.29824737731742146</v>
+      </c>
+      <c r="D75" s="2">
+        <v>-0.1042732920195627</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6.2835246232016168E-2</v>
+      </c>
+      <c r="F75" s="2">
+        <v>6.3507336287103158E-2</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5.8865536584534299E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>38807</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.20093399545198565</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.24743472024774102</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2.0792445848868892E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>8.0439161354192656E-2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>6.7337122619195777E-2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>3.236526562972835E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>38837</v>
+      </c>
+      <c r="B77" s="2">
+        <v>-4.9486133343930185E-2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>7.7460896397382142E-2</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.10438738623590776</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3.0099310242436075E-2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4.7099742154894104E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>-0.23107257197716816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>38868</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-2.6518734159616544E-2</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4.1643042649479635E-2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>-0.14239622244362232</v>
+      </c>
+      <c r="E78" s="2">
+        <v>-7.1442990263314812E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>4.5219834593392454E-2</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.14210064395392813</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>38898</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3.8811768477508245E-2</v>
+      </c>
+      <c r="C79" s="2">
+        <v>-1.2397699675346161E-2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7.6151087416803501E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>-3.7613970234514197E-3</v>
+      </c>
+      <c r="F79" s="2">
+        <v>4.3453910000450603E-2</v>
+      </c>
+      <c r="G79" s="2">
+        <v>-7.7031831916294383E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>38929</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-0.2610712573216073</v>
+      </c>
+      <c r="C80" s="2">
+        <v>-8.2926074334571873E-2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>-0.12682751104788872</v>
+      </c>
+      <c r="E80" s="2">
+        <v>-3.8838657571403402E-2</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5.1642920119514643E-2</v>
+      </c>
+      <c r="G80" s="2">
+        <v>-0.14704800882182981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>38960</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.17106405817563783</v>
+      </c>
+      <c r="C81" s="2">
+        <v>-1.7065143556153742E-2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.13295620914298428</v>
+      </c>
+      <c r="E81" s="2">
+        <v>-3.1236542275361229E-2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-1.7166204853687132E-2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>8.6510596161701897E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>38990</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-1.2009307283081415E-2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>-3.4005502143016959E-2</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-7.5010581107003496E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>-1.4199295732071449E-2</v>
+      </c>
+      <c r="F82" s="2">
+        <v>7.002553958978211E-2</v>
+      </c>
+      <c r="G82" s="2">
+        <v>7.1750299662113907E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>39021</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-0.23940348271606204</v>
+      </c>
+      <c r="C83" s="2">
+        <v>-2.6782910607835209E-2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>-0.11605461589011903</v>
+      </c>
+      <c r="E83" s="2">
+        <v>-6.764830358465368E-2</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4.3458245809174664E-2</v>
+      </c>
+      <c r="G83" s="2">
+        <v>-9.9158809050463911E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>39051</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-0.15849474627397953</v>
+      </c>
+      <c r="C84" s="2">
+        <v>-0.13663584542437432</v>
+      </c>
+      <c r="D84" s="2">
+        <v>-7.4499628137594753E-2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>-7.6468669921614288E-2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>7.0346090618439334E-3</v>
+      </c>
+      <c r="G84" s="2">
+        <v>-1.4561057276614425E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>39082</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.74889971422744206</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.1170004950791335</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.36774105808796087</v>
+      </c>
+      <c r="E85" s="2">
+        <v>5.017362290408249E-2</v>
+      </c>
+      <c r="F85" s="2">
+        <v>6.5393570310528781E-2</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.26559146292487007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>39113</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-0.51958966825481478</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2.3605099899549249E-2</v>
+      </c>
+      <c r="D86" s="2">
+        <v>-0.30446626787673942</v>
+      </c>
+      <c r="E86" s="2">
+        <v>-1.7839776086230538E-2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>-8.3361249681456299E-3</v>
+      </c>
+      <c r="G86" s="2">
+        <v>-0.18894749932369928</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>39141</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.2177992199753101</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.1490364219826458</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.23225048416539418</v>
+      </c>
+      <c r="E87" s="2">
+        <v>-7.9544969225094297E-2</v>
+      </c>
+      <c r="F87" s="2">
+        <v>-2.4929075661869488E-2</v>
+      </c>
+      <c r="G87" s="2">
+        <v>9.0022780696879759E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>39172</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.2515748334342861</v>
+      </c>
+      <c r="C88" s="2">
+        <v>-1.6738538281739528E-2</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.1042931970664652</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.1267362860112981</v>
+      </c>
+      <c r="F88" s="2">
+        <v>-1.9443437366367055E-3</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2.2489694093159453E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>39202</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-8.7498371349625223E-2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.12729189401999033</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.17518992686774165</v>
+      </c>
+      <c r="E89" s="2">
+        <v>-0.21000364959354939</v>
+      </c>
+      <c r="F89" s="2">
+        <v>-2.3597889327124144E-2</v>
+      </c>
+      <c r="G89" s="2">
+        <v>-2.908675929669334E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>39233</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1.9247184141548898E-2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6.1107882075403262E-2</v>
+      </c>
+      <c r="D90" s="2">
+        <v>-6.8391692418870983E-2</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3.0363369798461173E-2</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1.6533189448118657E-2</v>
+      </c>
+      <c r="G90" s="2">
+        <v>4.0742317313840058E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>39263</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-4.4648564059546543E-2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>-3.7633250422540954E-2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7.1082805832713468E-3</v>
+      </c>
+      <c r="E91" s="2">
+        <v>5.681226370843024E-3</v>
+      </c>
+      <c r="F91" s="2">
+        <v>-5.4175170164256187E-2</v>
+      </c>
+      <c r="G91" s="2">
+        <v>-3.2629008494047518E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>39294</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-0.3483564582382076</v>
+      </c>
+      <c r="C92" s="2">
+        <v>-0.12458594605206841</v>
+      </c>
+      <c r="D92" s="2">
+        <v>-7.2275791984055593E-2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>-0.1388333156696733</v>
+      </c>
+      <c r="F92" s="2">
+        <v>-6.914562152175085E-3</v>
+      </c>
+      <c r="G92" s="2">
+        <v>-0.13033278843230367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>39325</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-7.3914702697397139E-2</v>
+      </c>
+      <c r="C93" s="2">
+        <v>-0.15563990833171709</v>
+      </c>
+      <c r="D93" s="2">
+        <v>-7.9863165761984919E-2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>-0.17344263832643561</v>
+      </c>
+      <c r="F93" s="2">
+        <v>5.803094805196848E-4</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.17881079191050375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>39355</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-6.462466277317923E-3</v>
+      </c>
+      <c r="C94" s="2">
+        <v>-0.14291120907097421</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.13158685991246635</v>
+      </c>
+      <c r="E94" s="2">
+        <v>-5.0367666816077974E-2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-4.9091992952123985E-2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>-3.8589666421582298E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>39386</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-0.32015849941926733</v>
+      </c>
+      <c r="C95" s="2">
+        <v>-0.1335118894646608</v>
+      </c>
+      <c r="D95" s="2">
+        <v>-0.24475878558919217</v>
+      </c>
+      <c r="E95" s="2">
+        <v>-0.1160784250989611</v>
+      </c>
+      <c r="F95" s="2">
+        <v>-3.4318999011232053E-2</v>
+      </c>
+      <c r="G95" s="2">
+        <v>7.4997710280118174E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>39416</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-5.8429433563149946E-2</v>
+      </c>
+      <c r="C96" s="2">
+        <v>-0.12835013308657842</v>
+      </c>
+      <c r="D96" s="2">
+        <v>9.6369870349998041E-2</v>
+      </c>
+      <c r="E96" s="2">
+        <v>-2.7779410397412024E-2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-5.2757651128733173E-2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-7.4262242387002797E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>39447</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-0.44681134867970457</v>
+      </c>
+      <c r="C97" s="2">
+        <v>-0.27513309388737395</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-4.8495309056256909E-2</v>
+      </c>
+      <c r="E97" s="2">
+        <v>-0.13492914059985434</v>
+      </c>
+      <c r="F97" s="2">
+        <v>-0.14498549898360139</v>
+      </c>
+      <c r="G97" s="2">
+        <v>-0.11840140003999181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>39478</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-0.27708261036433962</v>
+      </c>
+      <c r="C98" s="2">
+        <v>-0.26077446420239808</v>
+      </c>
+      <c r="D98" s="2">
+        <v>-0.18673110557601691</v>
+      </c>
+      <c r="E98" s="2">
+        <v>-5.412558253530779E-2</v>
+      </c>
+      <c r="F98" s="2">
+        <v>-8.7903711229801215E-2</v>
+      </c>
+      <c r="G98" s="2">
+        <v>5.1677788976786404E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>39507</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-0.74404185780821741</v>
+      </c>
+      <c r="C99" s="2">
+        <v>-0.48931193895075387</v>
+      </c>
+      <c r="D99" s="2">
+        <v>-0.24909240463413304</v>
+      </c>
+      <c r="E99" s="2">
+        <v>-0.14312785415774709</v>
+      </c>
+      <c r="F99" s="2">
+        <v>-0.1413074969159574</v>
+      </c>
+      <c r="G99" s="2">
+        <v>-0.21051410210037955</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>39538</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-0.74618156739174468</v>
+      </c>
+      <c r="C100" s="2">
+        <v>-0.58910201185476729</v>
+      </c>
+      <c r="D100" s="2">
+        <v>-0.23135348719912219</v>
+      </c>
+      <c r="E100" s="2">
+        <v>-0.14207393623629963</v>
+      </c>
+      <c r="F100" s="2">
+        <v>-9.1112107292558087E-2</v>
+      </c>
+      <c r="G100" s="2">
+        <v>-0.28164203666376464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>39568</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-0.67518708035476582</v>
+      </c>
+      <c r="C101" s="2">
+        <v>-0.72180350185157593</v>
+      </c>
+      <c r="D101" s="2">
+        <v>-0.43644091112940964</v>
+      </c>
+      <c r="E101" s="2">
+        <v>-0.23175968650216938</v>
+      </c>
+      <c r="F101" s="2">
+        <v>-9.5150368178163164E-2</v>
+      </c>
+      <c r="G101" s="2">
+        <v>8.8163885454976582E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>39599</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-0.78720274506813359</v>
+      </c>
+      <c r="C102" s="2">
+        <v>-0.736190464271548</v>
+      </c>
+      <c r="D102" s="2">
+        <v>-0.26036091744727019</v>
+      </c>
+      <c r="E102" s="2">
+        <v>-0.22926877271795074</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-8.535112369698937E-2</v>
+      </c>
+      <c r="G102" s="2">
+        <v>-0.21222193120592278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>39629</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-0.70092270878332463</v>
+      </c>
+      <c r="C103" s="2">
+        <v>-0.72110417806874139</v>
+      </c>
+      <c r="D103" s="2">
+        <v>-0.2705640737590328</v>
+      </c>
+      <c r="E103" s="2">
+        <v>-0.26398161904968132</v>
+      </c>
+      <c r="F103" s="2">
+        <v>-0.12766178890807736</v>
+      </c>
+      <c r="G103" s="2">
+        <v>-3.8715227066533207E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>39660</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-1.2322794803559529</v>
+      </c>
+      <c r="C104" s="2">
+        <v>-0.90680164473580371</v>
+      </c>
+      <c r="D104" s="2">
+        <v>-0.3902033865111772</v>
+      </c>
+      <c r="E104" s="2">
+        <v>-0.26956856966726722</v>
+      </c>
+      <c r="F104" s="2">
+        <v>-0.19046324197289183</v>
+      </c>
+      <c r="G104" s="2">
+        <v>-0.38204428220461684</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>39691</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-1.1931159813447083</v>
+      </c>
+      <c r="C105" s="2">
+        <v>-1.0421060568279954</v>
+      </c>
+      <c r="D105" s="2">
+        <v>-0.55665596928923777</v>
+      </c>
+      <c r="E105" s="2">
+        <v>-0.28828214977663508</v>
+      </c>
+      <c r="F105" s="2">
+        <v>-0.13100787316874504</v>
+      </c>
+      <c r="G105" s="2">
+        <v>-0.21716998911009014</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>39721</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-2.4972080513352668</v>
+      </c>
+      <c r="C106" s="2">
+        <v>-1.6408678376786427</v>
+      </c>
+      <c r="D106" s="2">
+        <v>-1.3230601841448946</v>
+      </c>
+      <c r="E106" s="2">
+        <v>-0.45186565046015625</v>
+      </c>
+      <c r="F106" s="2">
+        <v>-0.24407456016617865</v>
+      </c>
+      <c r="G106" s="2">
+        <v>-0.47820765656403647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>39752</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-1.1008288604641467</v>
+      </c>
+      <c r="C107" s="2">
+        <v>-1.5970509643813739</v>
+      </c>
+      <c r="D107" s="2">
+        <v>-0.12327692341738974</v>
+      </c>
+      <c r="E107" s="2">
+        <v>-0.40453905040991145</v>
+      </c>
+      <c r="F107" s="2">
+        <v>-0.26800933648201297</v>
+      </c>
+      <c r="G107" s="2">
+        <v>-0.30500355015483271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>39782</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-2.2527834555098147</v>
+      </c>
+      <c r="C108" s="2">
+        <v>-1.950273455769743</v>
+      </c>
+      <c r="D108" s="2">
+        <v>-0.7552675217073791</v>
+      </c>
+      <c r="E108" s="2">
+        <v>-0.61062466072511723</v>
+      </c>
+      <c r="F108" s="2">
+        <v>-0.24391881589127118</v>
+      </c>
+      <c r="G108" s="2">
+        <v>-0.6429724571860469</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>39813</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-2.6452290059354038</v>
+      </c>
+      <c r="C109" s="2">
+        <v>-1.9996137739697886</v>
+      </c>
+      <c r="D109" s="2">
+        <v>-1.3152731019191126</v>
+      </c>
+      <c r="E109" s="2">
+        <v>-0.70018789245123836</v>
+      </c>
+      <c r="F109" s="2">
+        <v>-0.25713339845936145</v>
+      </c>
+      <c r="G109" s="2">
+        <v>-0.37263461310569085</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>39844</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-2.8503983980750669</v>
+      </c>
+      <c r="C110" s="2">
+        <v>-2.582803619840095</v>
+      </c>
+      <c r="D110" s="2">
+        <v>-1.1616697623567163</v>
+      </c>
+      <c r="E110" s="2">
+        <v>-0.85127681841540703</v>
+      </c>
+      <c r="F110" s="2">
+        <v>-0.18785657514932913</v>
+      </c>
+      <c r="G110" s="2">
+        <v>-0.64959524215361664</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>39872</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-1.2217450531439493</v>
+      </c>
+      <c r="C111" s="2">
+        <v>-2.2391241523848069</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-0.30685074338296592</v>
+      </c>
+      <c r="E111" s="2">
+        <v>-0.63941352195140644</v>
+      </c>
+      <c r="F111" s="2">
+        <v>-0.29180674326045036</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1.6325955450873016E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>39903</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-2.2514136867382204</v>
+      </c>
+      <c r="C112" s="2">
+        <v>-2.1078523793190787</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-0.71958720728517067</v>
+      </c>
+      <c r="E112" s="2">
+        <v>-0.75113836323186434</v>
+      </c>
+      <c r="F112" s="2">
+        <v>-0.32520412946678157</v>
+      </c>
+      <c r="G112" s="2">
+        <v>-0.4554839867544046</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>39933</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-1.5345474464521764</v>
+      </c>
+      <c r="C113" s="2">
+        <v>-1.6692353954447821</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-0.38727033393158722</v>
+      </c>
+      <c r="E113" s="2">
+        <v>-0.63060665064309751</v>
+      </c>
+      <c r="F113" s="2">
+        <v>-0.2622447883737497</v>
+      </c>
+      <c r="G113" s="2">
+        <v>-0.25442567350374129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>39964</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-1.0943198563480052</v>
+      </c>
+      <c r="C114" s="2">
+        <v>-1.6267603298461342</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-0.45503470786200917</v>
+      </c>
+      <c r="E114" s="2">
+        <v>-0.39284656549099006</v>
+      </c>
+      <c r="F114" s="2">
+        <v>-0.20395456171221588</v>
+      </c>
+      <c r="G114" s="2">
+        <v>-4.2484021282789879E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>39994</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-0.90477978927381808</v>
+      </c>
+      <c r="C115" s="2">
+        <v>-1.1778823640246665</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-0.22711261339114885</v>
+      </c>
+      <c r="E115" s="2">
+        <v>-0.37040819357536675</v>
+      </c>
+      <c r="F115" s="2">
+        <v>-0.2197105096323248</v>
+      </c>
+      <c r="G115" s="2">
+        <v>-8.7548472674977756E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>40025</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.14140730458302561</v>
+      </c>
+      <c r="C116" s="2">
+        <v>-0.61923078034626589</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.35529396397854923</v>
+      </c>
+      <c r="E116" s="2">
+        <v>-0.26997459286405107</v>
+      </c>
+      <c r="F116" s="2">
+        <v>-0.17377084533298753</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.22985877880151495</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>40056</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5.8454224276799577E-3</v>
+      </c>
+      <c r="C117" s="2">
+        <v>-0.25250902075437082</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.33053110061358471</v>
+      </c>
+      <c r="E117" s="2">
+        <v>-0.21068351717133851</v>
+      </c>
+      <c r="F117" s="2">
+        <v>-8.7909332197847842E-2</v>
+      </c>
+      <c r="G117" s="2">
+        <v>-2.6092828816718493E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>40086</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-0.26138352654493313</v>
+      </c>
+      <c r="C118" s="2">
+        <v>-3.804359984474253E-2</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.21322060593956366</v>
+      </c>
+      <c r="E118" s="2">
+        <v>-0.1832630980351663</v>
+      </c>
+      <c r="F118" s="2">
+        <v>-0.41433854309109758</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.12299750864176726</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>40117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-0.25431972806044995</v>
+      </c>
+      <c r="C119" s="2">
+        <v>-0.16995261072590104</v>
+      </c>
+      <c r="D119" s="2">
+        <v>7.6706023981852514E-2</v>
+      </c>
+      <c r="E119" s="2">
+        <v>-0.22490323565337383</v>
+      </c>
+      <c r="F119" s="2">
+        <v>-0.20570681907710334</v>
+      </c>
+      <c r="G119" s="2">
+        <v>9.9584302688174614E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>40147</v>
+      </c>
+      <c r="B120" s="2">
+        <v>4.0063216171556927E-2</v>
+      </c>
+      <c r="C120" s="2">
+        <v>-0.15854667947794207</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.16136990598182355</v>
+      </c>
+      <c r="E120" s="2">
+        <v>-6.9666507783468267E-3</v>
+      </c>
+      <c r="F120" s="2">
+        <v>-0.21553910429413917</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.10119906526221933</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>40178</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-0.32595258679508338</v>
+      </c>
+      <c r="C121" s="2">
+        <v>-0.18006969956132546</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-2.0235249481570326E-2</v>
+      </c>
+      <c r="E121" s="2">
+        <v>-0.15959664880093535</v>
+      </c>
+      <c r="F121" s="2">
+        <v>-0.17616408739512449</v>
+      </c>
+      <c r="G121" s="2">
+        <v>3.004339888254683E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>40209</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.22460531010736504</v>
+      </c>
+      <c r="C122" s="2">
+        <v>-2.0428020172053803E-2</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.33755598719891966</v>
+      </c>
+      <c r="E122" s="2">
+        <v>5.6413083387272987E-2</v>
+      </c>
+      <c r="F122" s="2">
+        <v>-0.24123855380774425</v>
+      </c>
+      <c r="G122" s="2">
+        <v>7.1874793328916622E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>40237</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-0.35709636759062663</v>
+      </c>
+      <c r="C123" s="2">
+        <v>-0.15281454809278164</v>
+      </c>
+      <c r="D123" s="2">
+        <v>-4.125464465878681E-2</v>
+      </c>
+      <c r="E123" s="2">
+        <v>-0.18331712831094804</v>
+      </c>
+      <c r="F123" s="2">
+        <v>-0.18481654673838449</v>
+      </c>
+      <c r="G123" s="2">
+        <v>5.2291952117492629E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>40268</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.44782904629096065</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.10511266293589967</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.27459464949535528</v>
+      </c>
+      <c r="E124" s="2">
+        <v>8.0084583432388459E-2</v>
+      </c>
+      <c r="F124" s="2">
+        <v>-7.9454642074991186E-2</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.17260445543820815</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>40298</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.41428707523785008</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.16833991797939465</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.18969648235502914</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.23314030207601777</v>
+      </c>
+      <c r="F125" s="2">
+        <v>-0.15900389422443093</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.15045418503123409</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>40329</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.31904882495788844</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.39372164882889971</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.50552479205836487</v>
+      </c>
+      <c r="E126" s="2">
+        <v>9.4411970036521756E-2</v>
+      </c>
+      <c r="F126" s="2">
+        <v>-0.23788758220165618</v>
+      </c>
+      <c r="G126" s="2">
+        <v>-4.3000354935342017E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>40359</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-0.16365949605501207</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.18989213471357549</v>
+      </c>
+      <c r="D127" s="2">
+        <v>-7.5972427641555363E-3</v>
+      </c>
+      <c r="E127" s="2">
+        <v>-7.9941912027328602E-2</v>
+      </c>
+      <c r="F127" s="2">
+        <v>-0.21675600902326991</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0.14063566775974212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>40390</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.17751998214897807</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.11096977035061815</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.13134538676939736</v>
+      </c>
+      <c r="E128" s="2">
+        <v>9.4500960365423436E-2</v>
+      </c>
+      <c r="F128" s="2">
+        <v>-0.21755172429393183</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.16922535930808907</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>40421</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-0.1834512952487482</v>
+      </c>
+      <c r="C129" s="2">
+        <v>-5.653026971826073E-2</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2.2196561818105493E-2</v>
+      </c>
+      <c r="E129" s="2">
+        <v>-1.2916468510147267E-2</v>
+      </c>
+      <c r="F129" s="2">
+        <v>-0.18368247288100825</v>
+      </c>
+      <c r="G129" s="2">
+        <v>-9.0489156756981739E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>40451</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-0.20948045093594833</v>
+      </c>
+      <c r="C130" s="2">
+        <v>-7.1803921345239483E-2</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-2.2933426215551188E-2</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1.4866911893623891E-4</v>
+      </c>
+      <c r="F130" s="2">
+        <v>-0.1972125566905305</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1.051686285119713E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>40482</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-0.10272914065432306</v>
+      </c>
+      <c r="C131" s="2">
+        <v>-0.16522029561300652</v>
+      </c>
+      <c r="D131" s="2">
+        <v>-3.5916643904475978E-2</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.10174638906189044</v>
+      </c>
+      <c r="F131" s="2">
+        <v>-0.18977987847451469</v>
+      </c>
+      <c r="G131" s="2">
+        <v>2.1220992662777206E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>40512</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-0.22456779039062888</v>
+      </c>
+      <c r="C132" s="2">
+        <v>-0.17892579399363343</v>
+      </c>
+      <c r="D132" s="2">
+        <v>-2.7677389455607108E-2</v>
+      </c>
+      <c r="E132" s="2">
+        <v>-3.844492001040975E-2</v>
+      </c>
+      <c r="F132" s="2">
+        <v>-0.19629071548235993</v>
+      </c>
+      <c r="G132" s="2">
+        <v>3.7845234557747763E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>40543</v>
+      </c>
+      <c r="B133" s="2">
+        <v>8.0916273549095141E-2</v>
+      </c>
+      <c r="C133" s="2">
+        <v>-8.2126885831952268E-2</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.24376500663315315</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2.9789395166493145E-2</v>
+      </c>
+      <c r="F133" s="2">
+        <v>-0.23419958641768629</v>
+      </c>
+      <c r="G133" s="2">
+        <v>4.1561458167135114E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>40574</v>
+      </c>
+      <c r="B134" s="2">
+        <v>8.9575497561621378E-2</v>
+      </c>
+      <c r="C134" s="2">
+        <v>-1.8025339759970792E-2</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1.8636746077889857E-2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3.5946251821474054E-2</v>
+      </c>
+      <c r="F134" s="2">
+        <v>-0.19467873108353478</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.22967123074579224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>40602</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-0.39599514055856383</v>
+      </c>
+      <c r="C135" s="2">
+        <v>-7.5167789815949113E-2</v>
+      </c>
+      <c r="D135" s="2">
+        <v>-4.5716790474478949E-2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.18838588469783837</v>
+      </c>
+      <c r="F135" s="2">
+        <v>-0.25008726284663668</v>
+      </c>
+      <c r="G135" s="2">
+        <v>-0.28857697193528659</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>40633</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.37998394550299469</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2.4521434168684079E-2</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.20946350339673986</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0.10759629839619173</v>
+      </c>
+      <c r="F136" s="2">
+        <v>-0.1977160617092307</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.26064020541929389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>40663</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-0.45212858621270025</v>
+      </c>
+      <c r="C137" s="2">
+        <v>-0.15604659375608979</v>
+      </c>
+      <c r="D137" s="2">
+        <v>-0.17841147247908537</v>
+      </c>
+      <c r="E137" s="2">
+        <v>7.8979772022008857E-2</v>
+      </c>
+      <c r="F137" s="2">
+        <v>-0.24697310115620372</v>
+      </c>
+      <c r="G137" s="2">
+        <v>-0.10572378459942006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>40694</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-0.30890112272312226</v>
+      </c>
+      <c r="C138" s="2">
+        <v>-0.12701525447760925</v>
+      </c>
+      <c r="D138" s="2">
+        <v>4.0604544422706251E-2</v>
+      </c>
+      <c r="E138" s="2">
+        <v>5.0564479392845328E-2</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-0.25957864237166778</v>
+      </c>
+      <c r="G138" s="2">
+        <v>-0.14049150416700615</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>40724</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2.5893280937349483E-3</v>
+      </c>
+      <c r="C139" s="2">
+        <v>-0.25281346028069585</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2.4250337129770237E-2</v>
+      </c>
+      <c r="E139" s="2">
+        <v>5.003824441744617E-2</v>
+      </c>
+      <c r="F139" s="2">
+        <v>-0.17522717459556622</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.1035279211420848</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>40755</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.18812352264586132</v>
+      </c>
+      <c r="C140" s="2">
+        <v>-3.9396090661175331E-2</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.16876145646037272</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.11023723582588039</v>
+      </c>
+      <c r="F140" s="2">
+        <v>-0.20326189718816312</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.11238672754777139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>40786</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-7.2443854398934138E-2</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3.9422998780220715E-2</v>
+      </c>
+      <c r="D141" s="2">
+        <v>8.1341550623771269E-2</v>
+      </c>
+      <c r="E141" s="2">
+        <v>-2.8142590078967845E-2</v>
+      </c>
+      <c r="F141" s="2">
+        <v>-0.22447724644854739</v>
+      </c>
+      <c r="G141" s="2">
+        <v>9.8834431504809764E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>40816</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-0.22161692182794496</v>
+      </c>
+      <c r="C142" s="2">
+        <v>-3.5312417860339257E-2</v>
+      </c>
+      <c r="D142" s="2">
+        <v>-1.5176201880695237E-2</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0.13784438840181712</v>
+      </c>
+      <c r="F142" s="2">
+        <v>-0.15649796950604355</v>
+      </c>
+      <c r="G142" s="2">
+        <v>-0.18778713884302325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>40847</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.15562272209696215</v>
+      </c>
+      <c r="C143" s="2">
+        <v>-4.6146018043305648E-2</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.10061553050252171</v>
+      </c>
+      <c r="E143" s="2">
+        <v>5.0387594849905355E-2</v>
+      </c>
+      <c r="F143" s="2">
+        <v>-0.17646414851359213</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.18108374525812723</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>40877</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-0.37776039055816446</v>
+      </c>
+      <c r="C144" s="2">
+        <v>-0.1479181967630491</v>
+      </c>
+      <c r="D144" s="2">
+        <v>-0.16278637339801591</v>
+      </c>
+      <c r="E144" s="2">
+        <v>2.1513080320510868E-2</v>
+      </c>
+      <c r="F144" s="2">
+        <v>-0.1754995394977969</v>
+      </c>
+      <c r="G144" s="2">
+        <v>-6.0987557982862546E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>40908</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.29303345325415336</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2.363192826431702E-2</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.19870259649989716</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.11839049813131987</v>
+      </c>
+      <c r="F145" s="2">
+        <v>-0.17038331093400791</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.14632366955694431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>40939</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.33260984016803774</v>
+      </c>
+      <c r="C146" s="2">
+        <v>8.26276342880089E-2</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.19930689306155644</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.21843649164835763</v>
+      </c>
+      <c r="F146" s="2">
+        <v>-0.13466054172433178</v>
+      </c>
+      <c r="G146" s="2">
+        <v>4.9526997182455582E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>40968</v>
+      </c>
+      <c r="B147" s="2">
+        <v>-4.705719039324268E-2</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.1928620343429828</v>
+      </c>
+      <c r="D147" s="2">
+        <v>4.733566691107062E-2</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1.0060314921455735E-2</v>
+      </c>
+      <c r="F147" s="2">
+        <v>-0.12009101682423488</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1.5637844598465914E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>40999</v>
+      </c>
+      <c r="B148" s="2">
+        <v>-0.35819421319767858</v>
+      </c>
+      <c r="C148" s="2">
+        <v>-2.421385447429451E-2</v>
+      </c>
+      <c r="D148" s="2">
+        <v>-0.25609597395312633</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0.16726699243489559</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-0.18925135837129384</v>
+      </c>
+      <c r="G148" s="2">
+        <v>-8.0113873308153907E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>41029</v>
+      </c>
+      <c r="B149" s="2">
+        <v>8.0855264100558238E-2</v>
+      </c>
+      <c r="C149" s="2">
+        <v>-0.10813204649678766</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.23149164119648113</v>
+      </c>
+      <c r="E149" s="2">
+        <v>4.606983990198538E-3</v>
+      </c>
+      <c r="F149" s="2">
+        <v>-0.17654585800817146</v>
+      </c>
+      <c r="G149" s="2">
+        <v>2.1302496922050107E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>41060</v>
+      </c>
+      <c r="B150" s="2">
+        <v>-0.20998168720970434</v>
+      </c>
+      <c r="C150" s="2">
+        <v>-0.16244021210227488</v>
+      </c>
+      <c r="D150" s="2">
+        <v>-7.3040732616172763E-2</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1.7587617817172788E-2</v>
+      </c>
+      <c r="F150" s="2">
+        <v>-0.16623772771949638</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1.170915530879198E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>41090</v>
+      </c>
+      <c r="B151" s="2">
+        <v>-0.34062117322789615</v>
+      </c>
+      <c r="C151" s="2">
+        <v>-0.15658253211234743</v>
+      </c>
+      <c r="D151" s="2">
+        <v>-5.6630620535486925E-2</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1.4201382286990055E-2</v>
+      </c>
+      <c r="F151" s="2">
+        <v>-0.18470121609033169</v>
+      </c>
+      <c r="G151" s="2">
+        <v>-0.11349071888906756</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>41121</v>
+      </c>
+      <c r="B152" s="2">
+        <v>-0.22503379734249113</v>
+      </c>
+      <c r="C152" s="2">
+        <v>-0.25854555259336387</v>
+      </c>
+      <c r="D152" s="2">
+        <v>-9.617587732708277E-2</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2.6838786447089414E-3</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-0.13455134911626496</v>
+      </c>
+      <c r="G152" s="2">
+        <v>3.0095504561476654E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>41152</v>
+      </c>
+      <c r="B153" s="2">
+        <v>-0.47638642384756957</v>
+      </c>
+      <c r="C153" s="2">
+        <v>-0.34734713147265223</v>
+      </c>
+      <c r="D153" s="2">
+        <v>-0.19405653343607093</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1.7169174600604173E-2</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-0.14827984828227844</v>
+      </c>
+      <c r="G153" s="2">
+        <v>-0.15121921672982439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>41182</v>
+      </c>
+      <c r="B154" s="2">
+        <v>-5.3883963100210534E-2</v>
+      </c>
+      <c r="C154" s="2">
+        <v>-0.2517680614300904</v>
+      </c>
+      <c r="D154" s="2">
+        <v>-6.9257892093776141E-2</v>
+      </c>
+      <c r="E154" s="2">
+        <v>9.136605396691394E-2</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-0.11761904682164671</v>
+      </c>
+      <c r="G154" s="2">
+        <v>4.1626921848298373E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>41213</v>
+      </c>
+      <c r="B155" s="2">
+        <v>-0.2724738070670103</v>
+      </c>
+      <c r="C155" s="2">
+        <v>-0.26758139800493014</v>
+      </c>
+      <c r="D155" s="2">
+        <v>-8.4081841036371757E-2</v>
+      </c>
+      <c r="E155" s="2">
+        <v>3.2389508904704073E-2</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-0.1334986491683875</v>
+      </c>
+      <c r="G155" s="2">
+        <v>-8.7282825766955105E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>41243</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.29615487703948901</v>
+      </c>
+      <c r="C156" s="2">
+        <v>-1.0067631042577276E-2</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.17460748781082022</v>
+      </c>
+      <c r="E156" s="2">
+        <v>-2.7434095430521388E-2</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-8.5978077563024113E-2</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.23495956222221426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>41274</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.17943672669101118</v>
+      </c>
+      <c r="C157" s="2">
+        <v>6.7705932221163292E-2</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.17631136436658859</v>
+      </c>
+      <c r="E157" s="2">
+        <v>9.2748755620246717E-2</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-8.8575979519177964E-2</v>
+      </c>
+      <c r="G157" s="2">
+        <v>-1.0474137766462036E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>41305</v>
+      </c>
+      <c r="B158" s="2">
+        <v>-0.36972232347356943</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3.5289760085643586E-2</v>
+      </c>
+      <c r="D158" s="2">
+        <v>-0.33343293793475581</v>
+      </c>
+      <c r="E158" s="2">
+        <v>4.0619999210040982E-2</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-8.190770579364344E-2</v>
+      </c>
+      <c r="G158" s="2">
+        <v>4.9983210447887014E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>41333</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.21058526521281071</v>
+      </c>
+      <c r="C159" s="2">
+        <v>6.7665561434174888E-3</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.11574106126151687</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0.13150045900789781</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-0.10253532790603935</v>
+      </c>
+      <c r="G159" s="2">
+        <v>6.5879072849435324E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>41364</v>
+      </c>
+      <c r="B160" s="2">
+        <v>-0.2681449102970494</v>
+      </c>
+      <c r="C160" s="2">
+        <v>-0.14242732285260271</v>
+      </c>
+      <c r="D160" s="2">
+        <v>-4.7060397008547646E-4</v>
+      </c>
+      <c r="E160" s="2">
+        <v>5.7600820899775765E-2</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-0.11560618417714218</v>
+      </c>
+      <c r="G160" s="2">
+        <v>-0.20966894304959757</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>41394</v>
+      </c>
+      <c r="B161" s="2">
+        <v>-0.32069282163785501</v>
+      </c>
+      <c r="C161" s="2">
+        <v>-0.12608415557403121</v>
+      </c>
+      <c r="D161" s="2">
+        <v>-0.14641233373758974</v>
+      </c>
+      <c r="E161" s="2">
+        <v>-1.2889915523826519E-2</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-0.1346084882810335</v>
+      </c>
+      <c r="G161" s="2">
+        <v>-2.6782084095405043E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>41425</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.13305056539102625</v>
+      </c>
+      <c r="C162" s="2">
+        <v>-0.15192905551462607</v>
+      </c>
+      <c r="D162" s="2">
+        <v>5.8801655406634967E-4</v>
+      </c>
+      <c r="E162" s="2">
+        <v>6.5338157114423423E-2</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-7.804465387469213E-2</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.14516904559722862</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>41455</v>
+      </c>
+      <c r="B163" s="2">
+        <v>-0.13999993636173058</v>
+      </c>
+      <c r="C163" s="2">
+        <v>-0.10921406420285311</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2.2638706602205658E-2</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1.9997388639989688E-2</v>
+      </c>
+      <c r="F163" s="2">
+        <v>-0.13735958927788375</v>
+      </c>
+      <c r="G163" s="2">
+        <v>-4.5276442326042124E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>41486</v>
+      </c>
+      <c r="B164" s="2">
+        <v>-0.53494239504285312</v>
+      </c>
+      <c r="C164" s="2">
+        <v>-0.18063058867118584</v>
+      </c>
+      <c r="D164" s="2">
+        <v>-0.28943595867235294</v>
+      </c>
+      <c r="E164" s="2">
+        <v>-3.1187726064531032E-2</v>
+      </c>
+      <c r="F164" s="2">
+        <v>-9.1994838755168326E-2</v>
+      </c>
+      <c r="G164" s="2">
+        <v>-0.12232387155080086</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>41517</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.31538568592570204</v>
+      </c>
+      <c r="C165" s="2">
+        <v>-0.11985221515962723</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.23827458878773422</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0.11448030177826994</v>
+      </c>
+      <c r="F165" s="2">
+        <v>-0.12875342494844308</v>
+      </c>
+      <c r="G165" s="2">
+        <v>9.1384220308140973E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>41547</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.10433328509400994</v>
+      </c>
+      <c r="C166" s="2">
+        <v>-3.8407808007713706E-2</v>
+      </c>
+      <c r="D166" s="2">
+        <v>8.5791104864645931E-2</v>
+      </c>
+      <c r="E166" s="2">
+        <v>4.7960241418970956E-2</v>
+      </c>
+      <c r="F166" s="2">
+        <v>-0.1062337622840859</v>
+      </c>
+      <c r="G166" s="2">
+        <v>7.6815701094478953E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>41578</v>
+      </c>
+      <c r="B167" s="2">
+        <v>7.9577296742551866E-3</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0.14255890023132239</v>
+      </c>
+      <c r="D167" s="2">
+        <v>-3.1539710727052327E-2</v>
+      </c>
+      <c r="E167" s="2">
+        <v>6.4423418517776693E-2</v>
+      </c>
+      <c r="F167" s="2">
+        <v>-7.5430580949453777E-2</v>
+      </c>
+      <c r="G167" s="2">
+        <v>5.0504602832984608E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>41608</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.27544556901324985</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.12924552792717167</v>
+      </c>
+      <c r="D168" s="2">
+        <v>6.6929882796689438E-3</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0.10086360766027422</v>
+      </c>
+      <c r="F168" s="2">
+        <v>-5.5484913846399725E-2</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.22337388691970639</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>41639</v>
+      </c>
+      <c r="B169" s="2">
+        <v>-9.8152213167761876E-2</v>
+      </c>
+      <c r="C169" s="2">
+        <v>6.1750361839914385E-2</v>
+      </c>
+      <c r="D169" s="2">
+        <v>7.2927656082192108E-2</v>
+      </c>
+      <c r="E169" s="2">
+        <v>4.2845794294106475E-2</v>
+      </c>
+      <c r="F169" s="2">
+        <v>-9.2391859468507392E-2</v>
+      </c>
+      <c r="G169" s="2">
+        <v>-0.12153380407555305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>41670</v>
+      </c>
+      <c r="B170" s="2">
+        <v>-0.71991458561713673</v>
+      </c>
+      <c r="C170" s="2">
+        <v>-0.18087374325721628</v>
+      </c>
+      <c r="D170" s="2">
+        <v>-0.35888496323534586</v>
+      </c>
+      <c r="E170" s="2">
+        <v>4.8101030714570531E-2</v>
+      </c>
+      <c r="F170" s="2">
+        <v>-0.19671760055444221</v>
+      </c>
+      <c r="G170" s="2">
+        <v>-0.21241305254191911</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>41698</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.48955750412237148</v>
+      </c>
+      <c r="C171" s="2">
+        <v>-0.10950309822084237</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.29393984785785843</v>
+      </c>
+      <c r="E171" s="2">
+        <v>7.9235640106170055E-2</v>
+      </c>
+      <c r="F171" s="2">
+        <v>-2.7594067389896341E-2</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0.14397608354823938</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>41729</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.40613902182978912</v>
+      </c>
+      <c r="C172" s="2">
+        <v>5.8593980111674604E-2</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0.25351155755325416</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0.12306026009225222</v>
+      </c>
+      <c r="F172" s="2">
+        <v>-3.7767595537287799E-2</v>
+      </c>
+      <c r="G172" s="2">
+        <v>6.7334799721570734E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>41759</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2.414160220924022E-2</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.30661270938713359</v>
+      </c>
+      <c r="D173" s="2">
+        <v>-8.7760043373617105E-2</v>
+      </c>
+      <c r="E173" s="2">
+        <v>0.1753132470970967</v>
+      </c>
+      <c r="F173" s="2">
+        <v>-4.4924956289245983E-2</v>
+      </c>
+      <c r="G173" s="2">
+        <v>-1.8486645224993378E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>41790</v>
+      </c>
+      <c r="B174" s="2">
+        <v>9.4038619577954827E-2</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.17477308120566137</v>
+      </c>
+      <c r="D174" s="2">
+        <v>5.9552889360650535E-2</v>
+      </c>
+      <c r="E174" s="2">
+        <v>8.5798594584667931E-2</v>
+      </c>
+      <c r="F174" s="2">
+        <v>-8.6130172978744327E-2</v>
+      </c>
+      <c r="G174" s="2">
+        <v>3.4817308611380673E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>41820</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.170145401925199</v>
+      </c>
+      <c r="C175" s="2">
+        <v>9.6108541237464692E-2</v>
+      </c>
+      <c r="D175" s="2">
+        <v>7.4389754829774848E-2</v>
+      </c>
+      <c r="E175" s="2">
+        <v>0.16243477976587109</v>
+      </c>
+      <c r="F175" s="2">
+        <v>-8.1871671283876041E-2</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1.5192538613429106E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>41851</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.2900641674591069</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.18474939632075357</v>
+      </c>
+      <c r="D176" s="2">
+        <v>8.4175675086420515E-2</v>
+      </c>
+      <c r="E176" s="2">
+        <v>4.6486002747541361E-2</v>
+      </c>
+      <c r="F176" s="2">
+        <v>-6.3880482106012687E-2</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0.22328297173115785</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>41882</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-0.18605546554410482</v>
+      </c>
+      <c r="C177" s="2">
+        <v>9.1384701280067038E-2</v>
+      </c>
+      <c r="D177" s="2">
+        <v>-0.13169869854947455</v>
+      </c>
+      <c r="E177" s="2">
+        <v>0.1369508030938901</v>
+      </c>
+      <c r="F177" s="2">
+        <v>-3.0539421550634587E-2</v>
+      </c>
+      <c r="G177" s="2">
+        <v>-0.16076814853788582</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>41912</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1.1629506138822717E-2</v>
+      </c>
+      <c r="C178" s="2">
+        <v>3.8546069351274935E-2</v>
+      </c>
+      <c r="D178" s="2">
+        <v>4.2906061548691456E-2</v>
+      </c>
+      <c r="E178" s="2">
+        <v>8.8902473017070022E-2</v>
+      </c>
+      <c r="F178" s="2">
+        <v>-9.6243294316885289E-2</v>
+      </c>
+      <c r="G178" s="2">
+        <v>-2.3935734110053446E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>41943</v>
+      </c>
+      <c r="B179" s="2">
+        <v>4.5103797877782431E-2</v>
+      </c>
+      <c r="C179" s="2">
+        <v>-4.3107387175833227E-2</v>
+      </c>
+      <c r="D179" s="2">
+        <v>-2.2737706804020718E-2</v>
+      </c>
+      <c r="E179" s="2">
+        <v>0.12922670457180949</v>
+      </c>
+      <c r="F179" s="2">
+        <v>-3.9379804886594885E-2</v>
+      </c>
+      <c r="G179" s="2">
+        <v>-2.2005395003411529E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>41973</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.2889466894876998</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0.115226664501435</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.3249253998170773</v>
+      </c>
+      <c r="E180" s="2">
+        <v>2.7169643915887203E-2</v>
+      </c>
+      <c r="F180" s="2">
+        <v>-4.2697238453195285E-2</v>
+      </c>
+      <c r="G180" s="2">
+        <v>-2.0451115792069541E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>42004</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1.6254713257811061E-2</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.11676840020776443</v>
+      </c>
+      <c r="D181" s="2">
+        <v>-0.11886165690604633</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0.12770267753387507</v>
+      </c>
+      <c r="F181" s="2">
+        <v>-5.7801257323102671E-2</v>
+      </c>
+      <c r="G181" s="2">
+        <v>6.521494995308505E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>42035</v>
+      </c>
+      <c r="B182" s="2">
+        <v>-0.1706537580051917</v>
+      </c>
+      <c r="C182" s="2">
+        <v>4.4849214913439718E-2</v>
+      </c>
+      <c r="D182" s="2">
+        <v>-0.14002308201245992</v>
+      </c>
+      <c r="E182" s="2">
+        <v>6.8092916747030691E-2</v>
+      </c>
+      <c r="F182" s="2">
+        <v>-3.7805572539569045E-2</v>
+      </c>
+      <c r="G182" s="2">
+        <v>-6.0918020200193379E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>42063</v>
+      </c>
+      <c r="B183" s="2">
+        <v>-0.41174816839120221</v>
+      </c>
+      <c r="C183" s="2">
+        <v>-0.18871573771286096</v>
+      </c>
+      <c r="D183" s="2">
+        <v>-0.24043070779623466</v>
+      </c>
+      <c r="E183" s="2">
+        <v>7.9520624784249719E-2</v>
+      </c>
+      <c r="F183" s="2">
+        <v>-0.13834002256198888</v>
+      </c>
+      <c r="G183" s="2">
+        <v>-0.11249806281722841</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>42094</v>
+      </c>
+      <c r="B184" s="2">
+        <v>-3.9066034125830151E-2</v>
+      </c>
+      <c r="C184" s="2">
+        <v>-0.20715598684074135</v>
+      </c>
+      <c r="D184" s="2">
+        <v>-1.1229898809084647E-2</v>
+      </c>
+      <c r="E184" s="2">
+        <v>-5.101481469844036E-2</v>
+      </c>
+      <c r="F184" s="2">
+        <v>-5.1414026845234696E-2</v>
+      </c>
+      <c r="G184" s="2">
+        <v>7.4592706226929539E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>42124</v>
+      </c>
+      <c r="B185" s="2">
+        <v>-8.0022300943709667E-3</v>
+      </c>
+      <c r="C185" s="2">
+        <v>-0.15293881087046776</v>
+      </c>
+      <c r="D185" s="2">
+        <v>-0.17254934993760301</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0.11920350328366587</v>
+      </c>
+      <c r="F185" s="2">
+        <v>-3.578637153363777E-2</v>
+      </c>
+      <c r="G185" s="2">
+        <v>8.1129988093203931E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>42155</v>
+      </c>
+      <c r="B186" s="2">
+        <v>-0.36209125522947272</v>
+      </c>
+      <c r="C186" s="2">
+        <v>-0.13638650648322462</v>
+      </c>
+      <c r="D186" s="2">
+        <v>-0.10898174021472246</v>
+      </c>
+      <c r="E186" s="2">
+        <v>3.5314742024614314E-2</v>
+      </c>
+      <c r="F186" s="2">
+        <v>-4.918261642831126E-2</v>
+      </c>
+      <c r="G186" s="2">
+        <v>-0.23924164061105335</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>42185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>-0.10889271020553966</v>
+      </c>
+      <c r="C187" s="2">
+        <v>-0.15966206517646112</v>
+      </c>
+      <c r="D187" s="2">
+        <v>-0.16463009227678788</v>
+      </c>
+      <c r="E187" s="2">
+        <v>4.7066088037021718E-2</v>
+      </c>
+      <c r="F187" s="2">
+        <v>-4.4749283526224266E-2</v>
+      </c>
+      <c r="G187" s="2">
+        <v>5.3420577560450822E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>42216</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.31240160403476563</v>
+      </c>
+      <c r="C188" s="2">
+        <v>-5.2860787133415577E-2</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.174778532525558</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0.17572146622724294</v>
+      </c>
+      <c r="F188" s="2">
+        <v>-2.2712896278913267E-2</v>
+      </c>
+      <c r="G188" s="2">
+        <v>-1.5385498439122005E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B189" s="2">
+        <v>-0.27506118533384666</v>
+      </c>
+      <c r="C189" s="2">
+        <v>-2.385076383487356E-2</v>
+      </c>
+      <c r="D189" s="2">
+        <v>-0.11826476501733757</v>
+      </c>
+      <c r="E189" s="2">
+        <v>-5.6581721214123096E-2</v>
+      </c>
+      <c r="F189" s="2">
+        <v>-5.0477216651134582E-2</v>
+      </c>
+      <c r="G189" s="2">
+        <v>-4.9737482451251314E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B190" s="2">
+        <v>-0.16383625252975545</v>
+      </c>
+      <c r="C190" s="2">
+        <v>-4.21652779429455E-2</v>
+      </c>
+      <c r="D190" s="2">
+        <v>-0.21362460893607729</v>
+      </c>
+      <c r="E190" s="2">
+        <v>-1.8104984398670958E-2</v>
+      </c>
+      <c r="F190" s="2">
+        <v>-4.0899479512438955E-2</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0.10879282031743168</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>42308</v>
+      </c>
+      <c r="B191" s="2">
+        <v>-0.19080052605122241</v>
+      </c>
+      <c r="C191" s="2">
+        <v>-0.20989932130494152</v>
+      </c>
+      <c r="D191" s="2">
+        <v>-0.12939746123002169</v>
+      </c>
+      <c r="E191" s="2">
+        <v>0.10572311973832449</v>
+      </c>
+      <c r="F191" s="2">
+        <v>-8.8663896513411319E-2</v>
+      </c>
+      <c r="G191" s="2">
+        <v>-7.8462288046113868E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>42338</v>
+      </c>
+      <c r="B192" s="2">
+        <v>-0.35212015156449838</v>
+      </c>
+      <c r="C192" s="2">
+        <v>-0.23558564338182542</v>
+      </c>
+      <c r="D192" s="2">
+        <v>-0.22807440969472706</v>
+      </c>
+      <c r="E192" s="2">
+        <v>-4.1463574864340275E-4</v>
+      </c>
+      <c r="F192" s="2">
+        <v>-2.8129112896231077E-2</v>
+      </c>
+      <c r="G192" s="2">
+        <v>-9.5501993224896956E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>42369</v>
+      </c>
+      <c r="B193" s="2">
+        <v>-0.29709514484767957</v>
+      </c>
+      <c r="C193" s="2">
+        <v>-0.2800052741544668</v>
+      </c>
+      <c r="D193" s="2">
+        <v>-0.2355438965992066</v>
+      </c>
+      <c r="E193" s="2">
+        <v>6.980844602919993E-2</v>
+      </c>
+      <c r="F193" s="2">
+        <v>-2.1853094701220557E-2</v>
+      </c>
+      <c r="G193" s="2">
+        <v>-0.10950659957645238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>42400</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.13605954802866976</v>
+      </c>
+      <c r="C194" s="2">
+        <v>-0.17105191612783607</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.19551129017605187</v>
+      </c>
+      <c r="E194" s="2">
+        <v>6.7944433691156894E-2</v>
+      </c>
+      <c r="F194" s="2">
+        <v>-7.6893010154831784E-2</v>
+      </c>
+      <c r="G194" s="2">
+        <v>-5.0503165683707357E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>42429</v>
+      </c>
+      <c r="B195" s="2">
+        <v>-0.26109330532796138</v>
+      </c>
+      <c r="C195" s="2">
+        <v>-0.1407096340489904</v>
+      </c>
+      <c r="D195" s="2">
+        <v>-0.27907001990619196</v>
+      </c>
+      <c r="E195" s="2">
+        <v>-1.5422662281966915E-2</v>
+      </c>
+      <c r="F195" s="2">
+        <v>2.7763000224538221E-2</v>
+      </c>
+      <c r="G195" s="2">
+        <v>5.6363766356591384E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>42460</v>
+      </c>
+      <c r="B196" s="2">
+        <v>-0.33846920736630476</v>
+      </c>
+      <c r="C196" s="2">
+        <v>-0.15450098822186545</v>
+      </c>
+      <c r="D196" s="2">
+        <v>-0.23978041261300473</v>
+      </c>
+      <c r="E196" s="2">
+        <v>2.0229471591307901E-2</v>
+      </c>
+      <c r="F196" s="2">
+        <v>-0.10725579024342155</v>
+      </c>
+      <c r="G196" s="2">
+        <v>-1.1662476101186448E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>42490</v>
+      </c>
+      <c r="B197" s="2">
+        <v>-0.18352324368011269</v>
+      </c>
+      <c r="C197" s="2">
+        <v>-0.26102858545812629</v>
+      </c>
+      <c r="D197" s="2">
+        <v>-8.5588960507895689E-2</v>
+      </c>
+      <c r="E197" s="2">
+        <v>-2.2811200301408621E-2</v>
+      </c>
+      <c r="F197" s="2">
+        <v>-5.5314276243846244E-2</v>
+      </c>
+      <c r="G197" s="2">
+        <v>-1.9808806626962178E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>42521</v>
+      </c>
+      <c r="B198" s="2">
+        <v>-0.30742477909715843</v>
+      </c>
+      <c r="C198" s="2">
+        <v>-0.27647241004785861</v>
+      </c>
+      <c r="D198" s="2">
+        <v>-7.2289929600873243E-2</v>
+      </c>
+      <c r="E198" s="2">
+        <v>-1.8677698773907899E-2</v>
+      </c>
+      <c r="F198" s="2">
+        <v>-5.3300839558326887E-2</v>
+      </c>
+      <c r="G198" s="2">
+        <v>-0.16315631116405041</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>42551</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.11907815662609975</v>
+      </c>
+      <c r="C199" s="2">
+        <v>-0.12395662205039044</v>
+      </c>
+      <c r="D199" s="2">
+        <v>6.8994693239569985E-2</v>
+      </c>
+      <c r="E199" s="2">
+        <v>3.686703699632992E-2</v>
+      </c>
+      <c r="F199" s="2">
+        <v>-9.0772572740243605E-3</v>
+      </c>
+      <c r="G199" s="2">
+        <v>2.2293683664224195E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>42582</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0.10154769703665179</v>
+      </c>
+      <c r="C200" s="2">
+        <v>-2.8932975144802298E-2</v>
+      </c>
+      <c r="D200" s="2">
+        <v>3.1188921024131486E-2</v>
+      </c>
+      <c r="E200" s="2">
+        <v>0.13894643500054821</v>
+      </c>
+      <c r="F200" s="2">
+        <v>-4.0502318119207494E-2</v>
+      </c>
+      <c r="G200" s="2">
+        <v>-2.8085340868820394E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>42613</v>
+      </c>
+      <c r="B201" s="2">
+        <v>-0.21537634398368105</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1.7498365596901599E-3</v>
+      </c>
+      <c r="D201" s="2">
+        <v>-0.14412982539934069</v>
+      </c>
+      <c r="E201" s="2">
+        <v>-8.0028987432062507E-2</v>
+      </c>
+      <c r="F201" s="2">
+        <v>-5.4932568040664591E-2</v>
+      </c>
+      <c r="G201" s="2">
+        <v>6.3715036888386742E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>42643</v>
+      </c>
+      <c r="B202" s="2">
+        <v>-1.038856748074948E-2</v>
+      </c>
+      <c r="C202" s="2">
+        <v>-4.1405738142592914E-2</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1.225301896165849E-2</v>
+      </c>
+      <c r="E202" s="2">
+        <v>2.5665331822845423E-2</v>
+      </c>
+      <c r="F202" s="2">
+        <v>-4.8478182112719308E-2</v>
+      </c>
+      <c r="G202" s="2">
+        <v>1.7126384746592218E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>42674</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1.5247400916026296E-2</v>
+      </c>
+      <c r="C203" s="2">
+        <v>-7.0172503516134743E-2</v>
+      </c>
+      <c r="D203" s="2">
+        <v>2.19264126931839E-3</v>
+      </c>
+      <c r="E203" s="2">
+        <v>1.6050717182088024E-2</v>
+      </c>
+      <c r="F203" s="2">
+        <v>-3.6479736359764557E-2</v>
+      </c>
+      <c r="G203" s="2">
+        <v>3.3483778824384441E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B204" s="2">
+        <v>-0.14290702628729407</v>
+      </c>
+      <c r="C204" s="2">
+        <v>-4.6016064284005752E-2</v>
+      </c>
+      <c r="D204" s="2">
+        <v>-7.4946372991194041E-2</v>
+      </c>
+      <c r="E204" s="2">
+        <v>5.6656140480040841E-2</v>
+      </c>
+      <c r="F204" s="2">
+        <v>-6.3063517750804848E-2</v>
+      </c>
+      <c r="G204" s="2">
+        <v>-6.1553276025336008E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>42735</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0.49326116589099889</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.1218671801732437</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.21865160263174555</v>
+      </c>
+      <c r="E205" s="2">
+        <v>6.8866003063969977E-2</v>
+      </c>
+      <c r="F205" s="2">
+        <v>1.7944593329188425E-2</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0.18779896686609487</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B206" s="2">
+        <v>-7.8357852323652624E-2</v>
+      </c>
+      <c r="C206" s="2">
+        <v>9.0665429093350736E-2</v>
+      </c>
+      <c r="D206" s="2">
+        <v>2.7085942922017915E-2</v>
+      </c>
+      <c r="E206" s="2">
+        <v>-1.1429537084827455E-3</v>
+      </c>
+      <c r="F206" s="2">
+        <v>-4.4507174119567693E-2</v>
+      </c>
+      <c r="G206" s="2">
+        <v>-5.9793667417620086E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>42794</v>
+      </c>
+      <c r="B207" s="2">
+        <v>-0.10687738155737622</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.10267531066999001</v>
+      </c>
+      <c r="D207" s="2">
+        <v>-0.12570809982551642</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0.10665716614999014</v>
+      </c>
+      <c r="F207" s="2">
+        <v>-4.368721517422481E-2</v>
+      </c>
+      <c r="G207" s="2">
+        <v>-4.4139232707625119E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>42825</v>
+      </c>
+      <c r="B208" s="2">
+        <v>9.285081264795754E-2</v>
+      </c>
+      <c r="C208" s="2">
+        <v>-3.0794807077690434E-2</v>
+      </c>
+      <c r="D208" s="2">
+        <v>8.3601614913873093E-2</v>
+      </c>
+      <c r="E208" s="2">
+        <v>6.6401390268530022E-2</v>
+      </c>
+      <c r="F208" s="2">
+        <v>-2.7141115938998366E-2</v>
+      </c>
+      <c r="G208" s="2">
+        <v>-3.0011076595447269E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>42855</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.30725497712175942</v>
+      </c>
+      <c r="C209" s="2">
+        <v>9.7742802737446913E-2</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.31270548437156681</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0.10482837089380424</v>
+      </c>
+      <c r="F209" s="2">
+        <v>-5.1359297520728042E-2</v>
+      </c>
+      <c r="G209" s="2">
+        <v>-5.8919580622883667E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>42886</v>
+      </c>
+      <c r="B210" s="2">
+        <v>-3.9090556761553145E-2</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0.12033841100272126</v>
+      </c>
+      <c r="D210" s="2">
+        <v>2.4743192850663568E-2</v>
+      </c>
+      <c r="E210" s="2">
+        <v>-2.8896500187550439E-2</v>
+      </c>
+      <c r="F210" s="2">
+        <v>-6.8593031792945833E-2</v>
+      </c>
+      <c r="G210" s="2">
+        <v>3.3655782368279534E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>42916</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.18288932509030395</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0.15035124848350342</v>
+      </c>
+      <c r="D211" s="2">
+        <v>-1.0987137998317482E-2</v>
+      </c>
+      <c r="E211" s="2">
+        <v>0.14753595511769135</v>
+      </c>
+      <c r="F211" s="2">
+        <v>-9.3077969075709352E-3</v>
+      </c>
+      <c r="G211" s="2">
+        <v>5.5648304878501025E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B212" s="2">
+        <v>-7.6821259345310131E-2</v>
+      </c>
+      <c r="C212" s="2">
+        <v>2.2325836327813559E-2</v>
+      </c>
+      <c r="D212" s="2">
+        <v>-5.3605861051533456E-2</v>
+      </c>
+      <c r="E212" s="2">
+        <v>2.9073839025455569E-2</v>
+      </c>
+      <c r="F212" s="2">
+        <v>-4.7025757478054063E-2</v>
+      </c>
+      <c r="G212" s="2">
+        <v>-5.263479841178211E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>42978</v>
+      </c>
+      <c r="B213" s="2">
+        <v>-3.7754712791664549E-2</v>
+      </c>
+      <c r="C213" s="2">
+        <v>2.2771117651109757E-2</v>
+      </c>
+      <c r="D213" s="2">
+        <v>-0.15891399192579056</v>
+      </c>
+      <c r="E213" s="2">
+        <v>7.7085329911874834E-2</v>
+      </c>
+      <c r="F213" s="2">
+        <v>-7.0188340399720786E-2</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0.11426228962197194</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0.13448790059764856</v>
+      </c>
+      <c r="C214" s="2">
+        <v>6.6373094868912947E-3</v>
+      </c>
+      <c r="D214" s="2">
+        <v>-3.8328770396295127E-2</v>
+      </c>
+      <c r="E214" s="2">
+        <v>6.9985615057681388E-2</v>
+      </c>
+      <c r="F214" s="2">
+        <v>2.2141585624309446E-2</v>
+      </c>
+      <c r="G214" s="2">
+        <v>8.0689470311952824E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>43039</v>
+      </c>
+      <c r="B215" s="2">
+        <v>0.65520829598493624</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0.25064716126364012</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.4846785642623001</v>
+      </c>
+      <c r="E215" s="2">
+        <v>9.7429799395244765E-2</v>
+      </c>
+      <c r="F215" s="2">
+        <v>-2.5614555948615076E-2</v>
+      </c>
+      <c r="G215" s="2">
+        <v>9.8714488276006401E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>43069</v>
+      </c>
+      <c r="B216" s="2">
+        <v>0.31512699572358371</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.36827439743538948</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.13117098544232972</v>
+      </c>
+      <c r="E216" s="2">
+        <v>3.9739492177842409E-2</v>
+      </c>
+      <c r="F216" s="2">
+        <v>-1.9288405372986964E-3</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0.14614535864071021</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>43100</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0.19804886033788663</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.38946138401546887</v>
+      </c>
+      <c r="D217" s="2">
+        <v>6.7236651057390934E-2</v>
+      </c>
+      <c r="E217" s="2">
+        <v>4.4700097912086324E-2</v>
+      </c>
+      <c r="F217" s="2">
+        <v>-1.0590912438619643E-2</v>
+      </c>
+      <c r="G217" s="2">
+        <v>9.6703023807028915E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>43131</v>
+      </c>
+      <c r="B218" s="2">
+        <v>-0.23921108364953017</v>
+      </c>
+      <c r="C218" s="2">
+        <v>9.1321590803980057E-2</v>
+      </c>
+      <c r="D218" s="2">
+        <v>-8.84754639993693E-2</v>
+      </c>
+      <c r="E218" s="2">
+        <v>9.6978001013397222E-2</v>
+      </c>
+      <c r="F218" s="2">
+        <v>-7.1833012872866031E-2</v>
+      </c>
+      <c r="G218" s="2">
+        <v>-0.17588060779069212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>43159</v>
+      </c>
+      <c r="B219" s="2">
+        <v>0.44968212848812589</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.13617330172549411</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.20370741018594851</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0.21410155752791143</v>
+      </c>
+      <c r="F219" s="2">
+        <v>-4.1183157856815519E-2</v>
+      </c>
+      <c r="G219" s="2">
+        <v>7.3056318631081377E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>43190</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0.17671960571923523</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.12906355018594365</v>
+      </c>
+      <c r="D220" s="2">
+        <v>8.4605857840502174E-2</v>
+      </c>
+      <c r="E220" s="2">
+        <v>8.4762795062721469E-2</v>
+      </c>
+      <c r="F220" s="2">
+        <v>-3.4371725389504036E-4</v>
+      </c>
+      <c r="G220" s="2">
+        <v>7.694670069906543E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B221" s="2">
+        <v>0.28181021709558352</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.30273731710098156</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.24922650375611147</v>
+      </c>
+      <c r="E221" s="2">
+        <v>8.596425707139857E-2</v>
+      </c>
+      <c r="F221" s="2">
+        <v>-3.4245881907139043E-2</v>
+      </c>
+      <c r="G221" s="2">
+        <v>-1.9134661824787465E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>43251</v>
+      </c>
+      <c r="B222" s="2">
+        <v>-0.20072403061609392</v>
+      </c>
+      <c r="C222" s="2">
+        <v>8.5935264066241593E-2</v>
+      </c>
+      <c r="D222" s="2">
+        <v>-0.36569998904107426</v>
+      </c>
+      <c r="E222" s="2">
+        <v>8.1654837465702637E-2</v>
+      </c>
+      <c r="F222" s="2">
+        <v>2.0604788110656868E-2</v>
+      </c>
+      <c r="G222" s="2">
+        <v>6.271633284862084E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>43281</v>
+      </c>
+      <c r="B223" s="2">
+        <v>0.25577322237237293</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.1122864696172875</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.23624193309944447</v>
+      </c>
+      <c r="E223" s="2">
+        <v>6.530874646493344E-2</v>
+      </c>
+      <c r="F223" s="2">
+        <v>-7.4133781640604385E-2</v>
+      </c>
+      <c r="G223" s="2">
+        <v>2.8356324448599358E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>43312</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0.17206876891418393</v>
+      </c>
+      <c r="C224" s="2">
+        <v>7.5705986890154314E-2</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.10458226511270186</v>
+      </c>
+      <c r="E224" s="2">
+        <v>9.625407901858099E-2</v>
+      </c>
+      <c r="F224" s="2">
+        <v>-2.1162394140284715E-2</v>
+      </c>
+      <c r="G224" s="2">
+        <v>-7.6051810768142094E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>43343</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0.35011874792801118</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.25932024640485601</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.19833518790275287</v>
+      </c>
+      <c r="E225" s="2">
+        <v>4.7253157846907902E-2</v>
+      </c>
+      <c r="F225" s="2">
+        <v>-3.5296474468001694E-2</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0.13982687664635218</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>43373</v>
+      </c>
+      <c r="B226" s="2">
+        <v>4.8992096640312718E-2</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0.19039320449416927</v>
+      </c>
+      <c r="D226" s="2">
+        <v>-9.9370818902452234E-3</v>
+      </c>
+      <c r="E226" s="2">
+        <v>5.8722833677367171E-2</v>
+      </c>
+      <c r="F226" s="2">
+        <v>-5.75988294554702E-2</v>
+      </c>
+      <c r="G226" s="2">
+        <v>5.7805174308660973E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>43404</v>
+      </c>
+      <c r="B227" s="2">
+        <v>4.4544202781582019E-3</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0.13452175494882737</v>
+      </c>
+      <c r="D227" s="2">
+        <v>2.4618618751166176E-2</v>
+      </c>
+      <c r="E227" s="2">
+        <v>5.4845940415115965E-2</v>
+      </c>
+      <c r="F227" s="2">
+        <v>-1.0350410680849663E-3</v>
+      </c>
+      <c r="G227" s="2">
+        <v>-7.3975097820038985E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>43434</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0.16762365012958486</v>
+      </c>
+      <c r="C228" s="2">
+        <v>7.369005568268526E-2</v>
+      </c>
+      <c r="D228" s="2">
+        <v>9.3333187196969689E-2</v>
+      </c>
+      <c r="E228" s="2">
+        <v>8.9021183209707797E-2</v>
+      </c>
+      <c r="F228" s="2">
+        <v>-1.6202770483277049E-2</v>
+      </c>
+      <c r="G228" s="2">
+        <v>1.47205020618447E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>43465</v>
+      </c>
+      <c r="B229" s="2">
+        <v>-7.2611928959878835E-2</v>
+      </c>
+      <c r="C229" s="2">
+        <v>3.3155380482621406E-2</v>
+      </c>
+      <c r="D229" s="2">
+        <v>6.7910268674989088E-2</v>
+      </c>
+      <c r="E229" s="2">
+        <v>-7.9398016486473284E-3</v>
+      </c>
+      <c r="F229" s="2">
+        <v>-0.19673273395878091</v>
+      </c>
+      <c r="G229" s="2">
+        <v>6.415033797256027E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>43496</v>
+      </c>
+      <c r="B230" s="2">
+        <v>-2.5179925910341967E-2</v>
+      </c>
+      <c r="C230" s="2">
+        <v>2.3277265086454686E-2</v>
+      </c>
+      <c r="D230" s="2">
+        <v>-0.23097639582253518</v>
+      </c>
+      <c r="E230" s="2">
+        <v>6.7941981771207666E-2</v>
+      </c>
+      <c r="F230" s="2">
+        <v>5.2435300228664238E-2</v>
+      </c>
+      <c r="G230" s="2">
+        <v>8.5419187912321337E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>43524</v>
+      </c>
+      <c r="B231" s="2">
+        <v>-0.36111383871346453</v>
+      </c>
+      <c r="C231" s="2">
+        <v>-0.15296856452789512</v>
+      </c>
+      <c r="D231" s="2">
+        <v>-0.19477817000246977</v>
+      </c>
+      <c r="E231" s="2">
+        <v>-6.6144075581053771E-2</v>
+      </c>
+      <c r="F231" s="2">
+        <v>-9.0798136420649961E-2</v>
+      </c>
+      <c r="G231" s="2">
+        <v>-9.3934567092908428E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>43555</v>
+      </c>
+      <c r="B232" s="2">
+        <v>3.3904263945500918E-2</v>
+      </c>
+      <c r="C232" s="2">
+        <v>-0.11746316689276853</v>
+      </c>
+      <c r="D232" s="2">
+        <v>-1.3012240571329405E-2</v>
+      </c>
+      <c r="E232" s="2">
+        <v>4.8478353060134635E-2</v>
+      </c>
+      <c r="F232" s="2">
+        <v>2.7171048267706496E-2</v>
+      </c>
+      <c r="G232" s="2">
+        <v>-2.8732896811010794E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>43585</v>
+      </c>
+      <c r="B233" s="2">
+        <v>-0.63157539931104323</v>
+      </c>
+      <c r="C233" s="2">
+        <v>-0.31959499135966896</v>
+      </c>
+      <c r="D233" s="2">
+        <v>-0.38766427457355773</v>
+      </c>
+      <c r="E233" s="2">
+        <v>2.2186575129151037E-2</v>
+      </c>
+      <c r="F233" s="2">
+        <v>-3.352161758645146E-2</v>
+      </c>
+      <c r="G233" s="2">
+        <v>-0.23257608228018498</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>43616</v>
+      </c>
+      <c r="B234" s="2">
+        <v>-3.8355623360584852E-2</v>
+      </c>
+      <c r="C234" s="2">
+        <v>-0.21200891957537571</v>
+      </c>
+      <c r="D234" s="2">
+        <v>8.7402274031915337E-3</v>
+      </c>
+      <c r="E234" s="2">
+        <v>-1.4736471754131841E-2</v>
+      </c>
+      <c r="F234" s="2">
+        <v>-2.710511748953957E-2</v>
+      </c>
+      <c r="G234" s="2">
+        <v>-5.2542615201049674E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>43646</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.14905077404120509</v>
+      </c>
+      <c r="C235" s="2">
+        <v>-0.17362674954347432</v>
+      </c>
+      <c r="D235" s="2">
+        <v>2.5142700840058586E-2</v>
+      </c>
+      <c r="E235" s="2">
+        <v>1.8185597953255746E-2</v>
+      </c>
+      <c r="F235" s="2">
+        <v>-2.1354644197019542E-2</v>
+      </c>
+      <c r="G235" s="2">
+        <v>0.12707711944491029</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B236" s="2">
+        <v>-0.2343367686411898</v>
+      </c>
+      <c r="C236" s="2">
+        <v>-4.1213872653523186E-2</v>
+      </c>
+      <c r="D236" s="2">
+        <v>-0.16390342968896224</v>
+      </c>
+      <c r="E236" s="2">
+        <v>1.3827747555085959E-2</v>
+      </c>
+      <c r="F236" s="2">
+        <v>-2.7691640121418303E-2</v>
+      </c>
+      <c r="G236" s="2">
+        <v>-5.6569446385895172E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.16165635504319822</v>
+      </c>
+      <c r="C237" s="2">
+        <v>2.5456786814404508E-2</v>
+      </c>
+      <c r="D237" s="2">
+        <v>0.12154251882332552</v>
+      </c>
+      <c r="E237" s="2">
+        <v>8.4793341928826923E-3</v>
+      </c>
+      <c r="F237" s="2">
+        <v>5.473726374681933E-3</v>
+      </c>
+      <c r="G237" s="2">
+        <v>2.6160775652308069E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B238" s="2">
+        <v>-0.32981455200362414</v>
+      </c>
+      <c r="C238" s="2">
+        <v>-0.1341649885338719</v>
+      </c>
+      <c r="D238" s="2">
+        <v>-0.26353113484082985</v>
+      </c>
+      <c r="E238" s="2">
+        <v>2.7041181964016132E-2</v>
+      </c>
+      <c r="F238" s="2">
+        <v>-5.0900459992814132E-2</v>
+      </c>
+      <c r="G238" s="2">
+        <v>-4.2424139133996286E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>43769</v>
+      </c>
+      <c r="B239" s="2">
+        <v>-0.40908670436443412</v>
+      </c>
+      <c r="C239" s="2">
+        <v>-0.19241496710828668</v>
+      </c>
+      <c r="D239" s="2">
+        <v>-0.23694468028000207</v>
+      </c>
+      <c r="E239" s="2">
+        <v>-1.075366201892E-2</v>
+      </c>
+      <c r="F239" s="2">
+        <v>-1.3790282529200983E-2</v>
+      </c>
+      <c r="G239" s="2">
+        <v>-0.14759807953631091</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>43799</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.29208105597507483</v>
+      </c>
+      <c r="C240" s="2">
+        <v>-0.14894006679766114</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0.27836353387629387</v>
+      </c>
+      <c r="E240" s="2">
+        <v>1.6283591565597888E-2</v>
+      </c>
+      <c r="F240" s="2">
+        <v>-2.2938103922817456E-2</v>
+      </c>
+      <c r="G240" s="2">
+        <v>2.0372034456000634E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>43830</v>
+      </c>
+      <c r="B241" s="2">
+        <v>-0.25724020143153165</v>
+      </c>
+      <c r="C241" s="2">
+        <v>-0.12474861660696364</v>
+      </c>
+      <c r="D241" s="2">
+        <v>-0.17471343939065925</v>
+      </c>
+      <c r="E241" s="2">
+        <v>-3.1823682198927367E-2</v>
+      </c>
+      <c r="F241" s="2">
+        <v>-7.6280485878902089E-3</v>
+      </c>
+      <c r="G241" s="2">
+        <v>-4.3075031254054791E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>43861</v>
+      </c>
+      <c r="B242" s="2">
+        <v>-0.10762869183357958</v>
+      </c>
+      <c r="C242" s="2">
+        <v>-2.4262612430012136E-2</v>
+      </c>
+      <c r="D242" s="2">
+        <v>-0.17000834254312966</v>
+      </c>
+      <c r="E242" s="2">
+        <v>-1.1258233945605546E-3</v>
+      </c>
+      <c r="F242" s="2">
+        <v>4.9633718266870117E-2</v>
+      </c>
+      <c r="G242" s="2">
+        <v>1.3871755837240575E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2.2573974257815009E-2</v>
+      </c>
+      <c r="C243" s="2">
+        <v>-0.11409830633576541</v>
+      </c>
+      <c r="D243" s="2">
+        <v>-5.318240988698277E-3</v>
+      </c>
+      <c r="E243" s="2">
+        <v>5.0369099467138641E-2</v>
+      </c>
+      <c r="F243" s="2">
+        <v>-3.2705312014970289E-2</v>
+      </c>
+      <c r="G243" s="2">
+        <v>1.0228427794344918E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B244" s="2">
+        <v>-4.3349921186207476</v>
+      </c>
+      <c r="C244" s="2">
+        <v>-1.4733489453988373</v>
+      </c>
+      <c r="D244" s="2">
+        <v>-1.8653760368901544</v>
+      </c>
+      <c r="E244" s="2">
+        <v>-1.0801001461697894</v>
+      </c>
+      <c r="F244" s="2">
+        <v>-0.60969269615871768</v>
+      </c>
+      <c r="G244" s="2">
+        <v>-0.77982323940208487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B245" s="2">
+        <v>-17.801369712200227</v>
+      </c>
+      <c r="C245" s="2">
+        <v>-7.371262618854387</v>
+      </c>
+      <c r="D245" s="2">
+        <v>-5.6814764175873407</v>
+      </c>
+      <c r="E245" s="2">
+        <v>-8.6904466601357768</v>
+      </c>
+      <c r="F245" s="2">
+        <v>-1.292286619535268</v>
+      </c>
+      <c r="G245" s="2">
+        <v>-2.1371600149418439</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>43982</v>
+      </c>
+      <c r="B246" s="2">
+        <v>4.3090509508734129</v>
+      </c>
+      <c r="C246" s="2">
+        <v>-5.94243695998252</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.86228675402205712</v>
+      </c>
+      <c r="E246" s="2">
+        <v>1.7067099481294816</v>
+      </c>
+      <c r="F246" s="2">
+        <v>0.94258584730502826</v>
+      </c>
+      <c r="G246" s="2">
+        <v>0.79746840141684594</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B247" s="2">
+        <v>5.8420362378875321</v>
+      </c>
+      <c r="C247" s="2">
+        <v>-2.5500941744797605</v>
+      </c>
+      <c r="D247" s="2">
+        <v>2.2690767872785336</v>
+      </c>
+      <c r="E247" s="2">
+        <v>1.9349959787732156</v>
+      </c>
+      <c r="F247" s="2">
+        <v>0.44478010700538945</v>
+      </c>
+      <c r="G247" s="2">
+        <v>1.193183364830396</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>44043</v>
+      </c>
+      <c r="B248" s="2">
+        <v>2.5355274530552436</v>
+      </c>
+      <c r="C248" s="2">
+        <v>4.228871547272063</v>
+      </c>
+      <c r="D248" s="2">
+        <v>1.2619234524365284</v>
+      </c>
+      <c r="E248" s="2">
+        <v>0.65111628451759362</v>
+      </c>
+      <c r="F248" s="2">
+        <v>9.204898043536032E-2</v>
+      </c>
+      <c r="G248" s="2">
+        <v>0.53043873566576094</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>44074</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.78712797541051638</v>
+      </c>
+      <c r="C249" s="2">
+        <v>3.0548972221177642</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.23059018586017108</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0.63435943257148197</v>
+      </c>
+      <c r="F249" s="2">
+        <v>-3.6948616000066825E-2</v>
+      </c>
+      <c r="G249" s="2">
+        <v>-4.0873027021069847E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7533,12 +13306,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12696,12 +18469,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17859,12 +23632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23022,12 +28795,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28185,7 +33958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B643"/>
   <sheetViews>
@@ -33344,7 +39117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
